--- a/문서/자유수강권자 추가 환불(3월)/논술2(강사).xlsx
+++ b/문서/자유수강권자 추가 환불(3월)/논술2(강사).xlsx
@@ -867,20 +867,24 @@
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
